--- a/backend/customerData.xlsx
+++ b/backend/customerData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>Devshruti Sen</t>
+  </si>
+  <si>
+    <t>sendevshruti@gmail.com</t>
+  </si>
+  <si>
+    <t>8965328754</t>
+  </si>
+  <si>
+    <t>NEAR YADAV DAIRY BAIRAGARH KALAN</t>
+  </si>
+  <si>
+    <t>BHOPAL</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
   </si>
 </sst>
 </file>
@@ -438,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,6 +546,52 @@
       </c>
       <c r="G4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
